--- a/Audit-SEO.xlsx
+++ b/Audit-SEO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redog\Desktop\Formation\OC P4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redog\Desktop\Formation\OC P4\DW+P4+sources+site+La+Panthere\Starting website 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>Catégorie</t>
   </si>
@@ -119,13 +119,88 @@
     <t>Format responsive</t>
   </si>
   <si>
-    <t xml:space="preserve">Bloc de text ne se redimensionne pas correctement </t>
-  </si>
-  <si>
     <t>Securité</t>
   </si>
   <si>
     <t xml:space="preserve">Inclut des bibliothèques JavaScript frontales avec des vulnérabilités de sécurité connues </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisisation d'image plutôt que du text </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imposé une taille defini en pourcentage à l'image ou utilisé un paragraphe texte </t>
+  </si>
+  <si>
+    <t>Utilisé de bibliothèques securisé</t>
+  </si>
+  <si>
+    <t>Remplacé par bibliothèque securisé ou supprimez si dispensable</t>
+  </si>
+  <si>
+    <t>https://web.dev/no-vulnerable-libraries/?utm_source=lighthouse&amp;utm_medium=lr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisé une taille dedié aux images concerné </t>
+  </si>
+  <si>
+    <t>https://web.dev/uses-responsive-images/?utm_source=lighthouse&amp;utm_medium=lr</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>Images aux mauvais formats</t>
+  </si>
+  <si>
+    <t>Convertire les images au format WebP ou AVIF</t>
+  </si>
+  <si>
+    <t>Encodé les images et utilisée des images de nouvelle génération pour allégée leur taille</t>
+  </si>
+  <si>
+    <t>https://web.dev/uses-webp-images/?utm_source=lighthouse&amp;utm_medium=lr ; https://web.dev/uses-optimized-images/?utm_source=lighthouse&amp;utm_medium=lr</t>
+  </si>
+  <si>
+    <t>Définissez une largeur et une hauteur explicites sur les éléments d'image pour réduire les décalages de mise en page et améliorer le CLS</t>
+  </si>
+  <si>
+    <t>Les éléments d'image n'ont pas d'éléments explicites width et height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definir les width et height des images </t>
+  </si>
+  <si>
+    <t>https://web.dev/optimize-cls/?utm_source=lighthouse&amp;utm_medium=lr#images-without-dimensions</t>
+  </si>
+  <si>
+    <t>Texte</t>
+  </si>
+  <si>
+    <t>Le document n'utilise pas de tailles de police lisibles</t>
+  </si>
+  <si>
+    <t>Les tailles de police inférieures à 12 pixels sont trop petites pour être lisibles et obligent les visiteurs mobiles à « pincer pour zoomer » afin de lire.</t>
+  </si>
+  <si>
+    <t>Appliquer au texte une taille de &gt; 60 %  de la page.</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/search/mobile-sites/get-started?utm_source=lighthouse&amp;utm_medium=lr</t>
+  </si>
+  <si>
+    <t>LCP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le LCP (Largest Contentful Paint) est a 6 seconde </t>
+  </si>
+  <si>
+    <t>Chargée seulement les éléments en vue et différé les éléments hors champs</t>
+  </si>
+  <si>
+    <t>Appliquer la fonction (loading="lazy") sur les images</t>
+  </si>
+  <si>
+    <t>https://web.dev/optimize-lcp/</t>
   </si>
 </sst>
 </file>
@@ -214,7 +289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -223,6 +298,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -441,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -584,33 +660,117 @@
         <v>28</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2"/>
+      <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="2"/>
+      <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="2"/>
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="2"/>
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="2"/>
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E12" s="2"/>
@@ -1620,8 +1780,13 @@
     <hyperlink ref="F3" r:id="rId2"/>
     <hyperlink ref="F4" r:id="rId3"/>
     <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F7" r:id="rId5"/>
+    <hyperlink ref="F6" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7" display="https://web.dev/uses-webp-images/?utm_source=lighthouse&amp;utm_medium=lr"/>
+    <hyperlink ref="F9" r:id="rId8" location="images-without-dimensions"/>
+    <hyperlink ref="F11" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId5"/>
+  <pageSetup orientation="landscape" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Audit-SEO.xlsx
+++ b/Audit-SEO.xlsx
@@ -135,15 +135,9 @@
     <t>Quand on  navigue au clavier il n'y a aucun indicateur visuel qui nous permets de se repérer sur le site, ce qui peux poser problème pour les utilisateur mal voyant</t>
   </si>
   <si>
-    <t xml:space="preserve">Dans le CSS definir ne pas utilisé la propriété "outline: none", mais plutôt jouer sur les differente fonction de la propriété "(:focus),(:focus-visible) ou (:focus:not(:focus-visible) pour le rendre visible ou invisible en fonction de notre utilisation </t>
-  </si>
-  <si>
     <t>Le contraste entre le texte et le fond est insuffisant voir inexistant et peut géner les utilistateur atteint de daltonisme ou mal voyant</t>
   </si>
   <si>
-    <t>https://developer.mozilla.org/fr/docs/Web/CSS/:focus-visible#accessibilit%C3%A9</t>
-  </si>
-  <si>
     <t>Responsive</t>
   </si>
   <si>
@@ -193,6 +187,12 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>https://www.digidop.fr/blog/aria-label</t>
+  </si>
+  <si>
+    <t>Dans le CSS definir ne pas utilisé la propriété "outline: none", mais plutôt jouer sur les differente fonction "Aria"</t>
   </si>
 </sst>
 </file>
@@ -329,7 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -365,6 +365,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -675,8 +678,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -712,7 +715,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -798,7 +801,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="7" customFormat="1" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -815,13 +818,13 @@
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="7" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -832,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
@@ -844,7 +847,7 @@
         <v>35</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="7" customFormat="1" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -890,7 +893,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -904,16 +907,16 @@
         <v>37</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>40</v>
+      <c r="F9" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
@@ -921,45 +924,45 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="7" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="7" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -967,19 +970,19 @@
         <v>6</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>8</v>
@@ -1987,7 +1990,7 @@
     <hyperlink ref="F4" r:id="rId2"/>
     <hyperlink ref="F3" r:id="rId3"/>
     <hyperlink ref="F6" r:id="rId4"/>
-    <hyperlink ref="F9" r:id="rId5" location="accessibilit%C3%A9"/>
+    <hyperlink ref="F9" r:id="rId5"/>
     <hyperlink ref="F10" r:id="rId6" location="Optimiser_son_referencement_avec_des_mots_cles_comment_les_placer_judicieusement_"/>
     <hyperlink ref="F11" r:id="rId7"/>
     <hyperlink ref="F12" r:id="rId8"/>

--- a/Audit-SEO.xlsx
+++ b/Audit-SEO.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redog\Desktop\Formation\OC P4\DW+P4+sources+site+La+Panthere\Starting website 2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Feuil1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
   <si>
     <t>Catégorie</t>
   </si>
@@ -84,21 +79,21 @@
     <t>https://www.pierre-giraud.com/javascript-apprendre-coder-cours/chemin-critique-rendu-async-defer/</t>
   </si>
   <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le cache non paramétré ne permet pas de memorisé les pages déjà visité et ralenti le chargement  de ces même pages ulterieurment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parametrer un delais dans le fichier "htaccess" dans le serveur </t>
+  </si>
+  <si>
+    <t>https://www.seomix.fr/guide-htaccess-performances-et-temps-de-chargement/</t>
+  </si>
+  <si>
     <t>A FAIRE</t>
   </si>
   <si>
-    <t>Cache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">le cache non paramétré ne permet pas de memorisé les pages déjà visité et ralenti le chargement  de ces même pages ulterieurment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parametrer un delais dans le fichier "htaccess" dans le serveur </t>
-  </si>
-  <si>
-    <t>https://www.seomix.fr/guide-htaccess-performances-et-temps-de-chargement/</t>
-  </si>
-  <si>
     <t>Accessibilité</t>
   </si>
   <si>
@@ -177,9 +172,6 @@
     <t>https://www.enjin.fr/referencement-tout-savoir-sur-le-texte-cache/</t>
   </si>
   <si>
-    <t>EN COUR</t>
-  </si>
-  <si>
     <t>Langue</t>
   </si>
   <si>
@@ -192,28 +184,28 @@
     <t>https://www.w3.org/International/questions/qa-lang-why.fr</t>
   </si>
   <si>
+    <t>Meta kewords</t>
+  </si>
+  <si>
     <t>La meta kewords n'est plus utile vue qu'elle n'est plus analysé par les crawler (robot google)</t>
   </si>
   <si>
     <t xml:space="preserve">Il suffit de la supprimé </t>
   </si>
   <si>
-    <t>Meta kewords</t>
+    <t>https://www.webrankinfo.com/dossiers/debutants/meta-keywords</t>
   </si>
   <si>
     <t>CSS/JS</t>
   </si>
   <si>
+    <t>L'ensemble des fichier à analysé sont volumineux et ont une repercution sur la vitesse de chargement de la page ou encore sur le credit crawling (limitation d'analyse par le robot google)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utilisé des outils automatisé afin de minifié (reduire) la taille des fichier à analysé et accéléré le chargement de la pages </t>
+  </si>
+  <si>
     <t>https://thibautsoufflet.fr/blog/pourquoi-et-comment-minifier-vos-fichiers-css-html-et-javascript/</t>
-  </si>
-  <si>
-    <t>https://www.webrankinfo.com/dossiers/debutants/meta-keywords</t>
-  </si>
-  <si>
-    <t>L'ensemble des fichier à analysé sont volumineux et ont une repercution sur la vitesse de chargement de la page ou encore sur le credit crawling (limitation d'analyse par le robot google)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">utilisé des outils automatisé afin de minifié (reduire) la taille des fichier à analysé et accéléré le chargement de la pages </t>
   </si>
   <si>
     <t>Structure HTML</t>
@@ -243,8 +235,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,7 +248,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFffffff"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -268,13 +261,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -282,33 +268,16 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -322,7 +291,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor rgb="FF7030a0"/>
       </patternFill>
     </fill>
   </fills>
@@ -336,16 +305,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -357,61 +326,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+  <cellXfs count="10">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -422,10 +377,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -463,71 +418,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -555,7 +510,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -578,11 +533,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -591,13 +546,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -607,7 +562,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -616,7 +571,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -625,7 +580,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -633,10 +588,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -707,322 +662,522 @@
   </sheetPr>
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="98.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="44.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="24" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" style="8" width="25.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="32.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="67.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="62.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="59.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="44.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="44.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="34.5" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" s="2" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="78" customFormat="1" s="1">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="2" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="92.25" customFormat="1" s="1">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="2" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="34.5" customFormat="1" s="1">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="2" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="49.5" customFormat="1" s="1">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" s="2" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="49.5" customFormat="1" s="1">
+      <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="2" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="G6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="98.40000000000002" customFormat="1" s="1">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="2" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="98.40000000000002" customFormat="1" s="1">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="2" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="98.40000000000002" customFormat="1" s="1">
+      <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" s="2" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="G9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="98.40000000000002" customFormat="1" s="1">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="2" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="G10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="98.40000000000002" customFormat="1" s="1">
+      <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="98.40000000000002" customFormat="1" s="1">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" s="2" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="3" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="98.40000000000002" customFormat="1" s="1">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>57</v>
@@ -1030,17 +1185,34 @@
       <c r="D13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>62</v>
+      <c r="E13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" s="3" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="98.40000000000002" customFormat="1" s="1">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1048,56 +1220,92 @@
         <v>60</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" s="3" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="98.40000000000002" customFormat="1" s="1">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" s="11" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="98.40000000000002" customFormat="1" s="1">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1118,20 +1326,33 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="98.40000000000002" customFormat="1" s="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="3"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1"/>
-    <hyperlink ref="F14" r:id="rId2"/>
-    <hyperlink ref="F13" r:id="rId3"/>
-    <hyperlink ref="F15" r:id="rId4" location=":~:text=Une%20balise%20s%C3%A9mantique%20est%20une,des%20informations%20qu'elle%20encadre."/>
-    <hyperlink ref="F16" r:id="rId5"/>
-    <hyperlink ref="F8" r:id="rId6"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Audit-SEO.xlsx
+++ b/Audit-SEO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
   <si>
     <t>Catégorie</t>
   </si>
@@ -237,7 +237,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +265,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -343,13 +349,13 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -912,7 +918,7 @@
         <v>30</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -932,7 +938,7 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="98.40000000000002" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="49.5" customFormat="1" s="1">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -972,7 +978,7 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="98.40000000000002" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="34.5" customFormat="1" s="1">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1032,7 +1038,7 @@
         <v>42</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -1269,7 +1275,9 @@
       <c r="F15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -1307,7 +1315,9 @@
       <c r="F16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>

--- a/Audit-SEO.xlsx
+++ b/Audit-SEO.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redog\Desktop\Formation\OC P4\DW+P4+sources+site+La+Panthere\Starting website 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Feuil1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -235,9 +240,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,7 +252,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFffffff"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -287,6 +291,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -297,7 +308,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030a0"/>
+        <fgColor rgb="FF7030A0"/>
       </patternFill>
     </fill>
   </fills>
@@ -311,16 +322,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -335,44 +346,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -383,10 +400,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -424,71 +441,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -516,7 +533,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -539,11 +556,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -552,13 +569,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -568,7 +585,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -577,7 +594,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -586,7 +603,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -594,10 +611,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -668,37 +685,23 @@
   </sheetPr>
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="8" width="25.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="32.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="67.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="62.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="59.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="44.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="44.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="25.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="44.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="24" width="10.5546875" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="34.5" customFormat="1" s="1">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -738,7 +741,7 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="78" customFormat="1" s="1">
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -778,7 +781,7 @@
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="92.25" customFormat="1" s="1">
+    <row r="3" spans="1:24" s="1" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -818,7 +821,7 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="34.5" customFormat="1" s="1">
+    <row r="4" spans="1:24" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -858,7 +861,7 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="49.5" customFormat="1" s="1">
+    <row r="5" spans="1:24" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -898,7 +901,7 @@
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="49.5" customFormat="1" s="1">
+    <row r="6" spans="1:24" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -938,7 +941,7 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="49.5" customFormat="1" s="1">
+    <row r="7" spans="1:24" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -978,7 +981,7 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="34.5" customFormat="1" s="1">
+    <row r="8" spans="1:24" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1018,7 +1021,7 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="98.40000000000002" customFormat="1" s="1">
+    <row r="9" spans="1:24" s="1" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -1058,7 +1061,7 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="98.40000000000002" customFormat="1" s="1">
+    <row r="10" spans="1:24" s="1" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1098,7 +1101,7 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="98.40000000000002" customFormat="1" s="1">
+    <row r="11" spans="1:24" s="1" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
@@ -1138,7 +1141,7 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="98.40000000000002" customFormat="1" s="1">
+    <row r="12" spans="1:24" s="1" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1178,7 +1181,7 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="98.40000000000002" customFormat="1" s="1">
+    <row r="13" spans="1:24" s="1" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1218,7 +1221,7 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="98.40000000000002" customFormat="1" s="1">
+    <row r="14" spans="1:24" s="1" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1256,7 +1259,7 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="98.40000000000002" customFormat="1" s="1">
+    <row r="15" spans="1:24" s="1" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -1275,7 +1278,7 @@
       <c r="F15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="5"/>
@@ -1296,7 +1299,7 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="98.40000000000002" customFormat="1" s="1">
+    <row r="16" spans="1:24" s="1" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -1336,7 +1339,7 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="98.40000000000002" customFormat="1" s="1">
+    <row r="17" spans="1:24" s="1" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1364,5 +1367,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Audit-SEO.xlsx
+++ b/Audit-SEO.xlsx
@@ -241,7 +241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,26 +265,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -346,37 +326,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,23 +653,24 @@
   </sheetPr>
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="44.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="24" width="10.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="44.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="24" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -741,7 +710,7 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="5" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -763,25 +732,25 @@
       <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-    </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="1:24" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -803,25 +772,25 @@
       <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-    </row>
-    <row r="4" spans="1:24" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -843,25 +812,25 @@
       <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-    </row>
-    <row r="5" spans="1:24" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="1:24" s="5" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -883,25 +852,25 @@
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-    </row>
-    <row r="6" spans="1:24" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" s="5" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -923,25 +892,25 @@
       <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-    </row>
-    <row r="7" spans="1:24" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" s="5" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -963,25 +932,25 @@
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-    </row>
-    <row r="8" spans="1:24" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -997,31 +966,31 @@
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-    </row>
-    <row r="9" spans="1:24" s="1" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="1:24" s="5" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -1043,25 +1012,25 @@
       <c r="G9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-    </row>
-    <row r="10" spans="1:24" s="1" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="1:24" s="5" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1083,25 +1052,25 @@
       <c r="G10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-    </row>
-    <row r="11" spans="1:24" s="1" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" s="5" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
@@ -1123,25 +1092,25 @@
       <c r="G11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-    </row>
-    <row r="12" spans="1:24" s="1" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" s="5" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1163,25 +1132,25 @@
       <c r="G12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-    </row>
-    <row r="13" spans="1:24" s="1" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" s="5" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1203,25 +1172,25 @@
       <c r="G13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-    </row>
-    <row r="14" spans="1:24" s="1" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" s="5" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1240,26 +1209,26 @@
       <c r="F14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-    </row>
-    <row r="15" spans="1:24" s="1" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+    </row>
+    <row r="15" spans="1:24" s="5" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -1275,31 +1244,31 @@
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-    </row>
-    <row r="16" spans="1:24" s="1" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" s="5" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -1315,7 +1284,7 @@
       <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="4" t="s">
         <v>71</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -1339,31 +1308,31 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="1:24" s="1" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" s="5" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Audit-SEO.xlsx
+++ b/Audit-SEO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="73">
   <si>
     <t>Catégorie</t>
   </si>
@@ -48,12 +48,6 @@
     <t>Head</t>
   </si>
   <si>
-    <t>La "meta titre" et "meta description" est nessaicere a la bonne comprehension et pour l'indexation des moteurs de recherche</t>
-  </si>
-  <si>
-    <t>Chaque page doit avoir son propre titre exclusif et des mots clés  dans la "meta titre" qui comprend entre 10 et 70 caractere espace comprise, et de 160 caractéres contenat des mots clé et donnant un aperçu globale a l'utilisateur dans la "meta description"</t>
-  </si>
-  <si>
     <t>OUI</t>
   </si>
   <si>
@@ -63,24 +57,12 @@
     <t>Titres</t>
   </si>
   <si>
-    <t>Les titres ne respecte pas l'odre logique de leur priorité respective cela a une influence directe sur le referencement et peut perturber les TA du style lecteur d'ecran</t>
-  </si>
-  <si>
-    <t>Imbriquée les titres en respectant leur prioritée du plus important au moin important, c’est-à-dire le titre principale de la page qui decrit le contenue principale de la page (H1) puis les titre secondaire qui peut decrire des categorie ou autre (H2) puis des titre de sous-dossier ou sous-categorie (H3) ainsi de suite...</t>
-  </si>
-  <si>
     <t>https://alyze.info/Guide/Referencement/Conception/balises-h1-h2-h3/</t>
   </si>
   <si>
     <t xml:space="preserve"> JavaScript </t>
   </si>
   <si>
-    <t>Pour amelioré le chargement de la pages précisé ce qui doit etre chargée ou non</t>
-  </si>
-  <si>
-    <t>Indiqué ce qui doit etre ignorer ou non dans le JavaScript a l'aide de "async" ou "defer"</t>
-  </si>
-  <si>
     <t>https://www.pierre-giraud.com/javascript-apprendre-coder-cours/chemin-critique-rendu-async-defer/</t>
   </si>
   <si>
@@ -105,24 +87,12 @@
     <t>Contraste</t>
   </si>
   <si>
-    <t>Le contraste entre le texte et le fond est insuffisant voir inexistant et peut géner les utilistateur atteint de daltonisme ou mal voyant</t>
-  </si>
-  <si>
-    <t>Adopté un contraste de 4:5:1 entre le fond d'écran et le texte de 18pt où de 3:1 pour le texte inferieure a 18pt</t>
-  </si>
-  <si>
     <t>https://www.tanaguru.com/contrastes-couleurs-regles-accessibilite/</t>
   </si>
   <si>
     <t>Footer</t>
   </si>
   <si>
-    <t xml:space="preserve">La création de lien intenpestif peut conduir au banissement du site dans les moteur de recherche </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supprimé les liens qui sont trop nombreux et rapporte a la notion de black hat SEO, qui est deconséillé et une très mauvaise pratique </t>
-  </si>
-  <si>
     <t>https://smartkeyword.io/seo-algorithme-google-google-pingouin/</t>
   </si>
   <si>
@@ -132,116 +102,149 @@
     <t>Plus les images sont lourdes plus elles mettent du temps a charger et ralentissent la vitesse de chargement de page</t>
   </si>
   <si>
-    <t xml:space="preserve">Utilisé un format tel que Webp ou AVIF pour optimisé le rapport taille et la resoution </t>
-  </si>
-  <si>
     <t>https://www.ionos.fr/digitalguide/sites-internet/web-design/webp-format/</t>
   </si>
   <si>
     <t>Navigation clavier</t>
   </si>
   <si>
-    <t>Quand on  navigue au clavier il n'y a aucun indicateur visuel qui nous permets de se repérer sur le site, ce qui peux poser problème pour les utilisateur mal voyant</t>
-  </si>
-  <si>
-    <t>Dans le CSS definir ne pas utilisé la propriété "outline: none", mais plutôt jouer sur les differente fonction "Aria"</t>
-  </si>
-  <si>
     <t>https://www.digidop.fr/blog/aria-label</t>
   </si>
   <si>
     <t>Responsive</t>
   </si>
   <si>
-    <t>Les textes sous forme d'image ne sont pas compatible et sortent de l'ecran au format mobile</t>
-  </si>
-  <si>
-    <t>Remplacé les images "texte" par du vrai texte ce qui pourrait favorisé l'indexation et le référencement grace aux mots clés utilisé</t>
-  </si>
-  <si>
     <t>https://www.sitew.com/Comment-optimiser-son-referencement/Comment-utiliser-mots-cles#Optimiser_son_referencement_avec_des_mots_cles_comment_les_placer_judicieusement_</t>
   </si>
   <si>
-    <t>SEO &amp; Accessibilité</t>
-  </si>
-  <si>
-    <t>Mots clés caché</t>
-  </si>
-  <si>
-    <t>Plusieurs suite de mots clés ont été repéré en texte caché (texte de même couleur que le fonds) ce qui s'apparente à des pratiques detesté par google qui pourrait mené a etre "blacklisté"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supprimé les mots clés caché et les utilisé de manière inteligente en les mettant en valeur (en Gras, Itallique ou souligné) plutôt que d'essayé de dupé les robots Google </t>
-  </si>
-  <si>
     <t>https://www.enjin.fr/referencement-tout-savoir-sur-le-texte-cache/</t>
   </si>
   <si>
     <t>Langue</t>
   </si>
   <si>
-    <t>La langue definie est "Default" alors que le contenue de la page est entierment redigé en français</t>
-  </si>
-  <si>
-    <t>Attribuer la langue "FR" dans la balise &lt;html lang="*"&gt;, il est préférable de definir la langue pour pouvoir ciblé le public visé</t>
-  </si>
-  <si>
     <t>https://www.w3.org/International/questions/qa-lang-why.fr</t>
   </si>
   <si>
     <t>Meta kewords</t>
   </si>
   <si>
-    <t>La meta kewords n'est plus utile vue qu'elle n'est plus analysé par les crawler (robot google)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il suffit de la supprimé </t>
-  </si>
-  <si>
     <t>https://www.webrankinfo.com/dossiers/debutants/meta-keywords</t>
   </si>
   <si>
     <t>CSS/JS</t>
   </si>
   <si>
-    <t>L'ensemble des fichier à analysé sont volumineux et ont une repercution sur la vitesse de chargement de la page ou encore sur le credit crawling (limitation d'analyse par le robot google)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">utilisé des outils automatisé afin de minifié (reduire) la taille des fichier à analysé et accéléré le chargement de la pages </t>
-  </si>
-  <si>
     <t>https://thibautsoufflet.fr/blog/pourquoi-et-comment-minifier-vos-fichiers-css-html-et-javascript/</t>
   </si>
   <si>
     <t>Structure HTML</t>
   </si>
   <si>
-    <t>La structure HTML n'est pas optimisé avec des balise sementique tel que "Header,Main,Footer" ou encore "Section"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On peut les ajoutés aux contenus leur correspondant ce qui permettrai une meilleur indexation </t>
-  </si>
-  <si>
     <t>https://blog.hubspot.fr/marketing/balises-semantiques#:~:text=Une%20balise%20s%C3%A9mantique%20est%20une,des%20informations%20qu'elle%20encadre.</t>
   </si>
   <si>
     <t>Taille du texte</t>
   </si>
   <si>
-    <t xml:space="preserve">Certain texte sont de trop petite taille pour certains utilisateur ce qui rend pennible la lecture et donc peut les ammenés a quitté le site </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Augmenté la taille en utilisant des pourcentage en unité pour les rendre adaptatif aux tailles d'ecrans utilisé </t>
-  </si>
-  <si>
     <t>https://www.concept-image.fr/blog/gamification-integrer-jeu-methodes-travail/</t>
+  </si>
+  <si>
+    <t>La "Meta titre" et "Meta description" est nécessaire à la bonne compréhension et pour l'indexation des moteurs de recherche</t>
+  </si>
+  <si>
+    <t>Chaque page doit avoir son propre titre exclusif et des mots-clés  dans la "Meta titre" qui comprend entre 10 et 70 caractères espacés compris, et de 160 caractères contenant des mots-clés et donnant un aperçu global à l'utilisateur dans la "meta description"</t>
+  </si>
+  <si>
+    <t>Les titres ne respectent pas l'ordre logique de leurs priorités respectives cela à une influence directe sur le referencement et peuvent perturber les TA du style lecteur d'écran</t>
+  </si>
+  <si>
+    <t>Imbriquer les titres en respectant leur priorité du plus important au moins important, c’est-à-dire le titre principal de la page qui décrit le contenue principale de la page (H1) puis les titre secondaire qui peut décrire des catégories ou autres (H2) puis des titres de sous-dossier ou sous-catégorie (H3) ainsi de suite....</t>
+  </si>
+  <si>
+    <t>Pour améliorer le chargement de la page précisé ce qui doit être chargée ou non</t>
+  </si>
+  <si>
+    <t>Indiqué ce qui doit être ignoré ou non dans le Javascript a l'aide de "async" ou "defer"</t>
+  </si>
+  <si>
+    <t>Le contraste entre le texte et le fond est insuffisant voire inexistant et peut gêner les utilisateurs atteints de daltonisme ou malvoyants</t>
+  </si>
+  <si>
+    <t>Supprimé les liens qui sont trop nombreux et rapporte à la notion de black hat SEO, qui est déconseillé et une très mauvaise pratique</t>
+  </si>
+  <si>
+    <t>La création de liens intempestifs peut conduir au bannissement du site dans les moteurs de recherche</t>
+  </si>
+  <si>
+    <t>Utilisé un format tel que Webp ou AVIF pour optimiser le rapport taille et la résolution</t>
+  </si>
+  <si>
+    <t>Quand on  navigue au clavier il n'y a aucun indicateur visuel qui nous permet de se repérer sur le site, ce qui peut poser problème pour les utilisateurs malvoyants</t>
+  </si>
+  <si>
+    <t>Formulaire</t>
+  </si>
+  <si>
+    <t>Dans le CSS supprimé "outline: none", et jouait sur les différentes fonctions "Aria" et ":focus"</t>
+  </si>
+  <si>
+    <t>D'apres la regle WCAG 1.4.3 et 1.4.6 il est preferable d'adopté un contraste de 4: 5: 1 entre le fond d'écran et le texte de 18 pt ou de 3: 1 pour le texte inférieur à 18 pt</t>
+  </si>
+  <si>
+    <t>Les textes sous forme d'image ne sont pas compatibles et le menu de la page contacte à l'écran au format mobile</t>
+  </si>
+  <si>
+    <t>Remplacé les images "texte" par du vrai texte ce qui pourrait favoriser l'indexation et le référencement grace aux mots-clés utilisés</t>
+  </si>
+  <si>
+    <t>Mots clés cachés</t>
+  </si>
+  <si>
+    <t>Plusieurs suites de mots clés ont été repéré en texte caché (texte de même couleur que le fonds) ce qui s'apparente à des pratiques détestées par google ce qui pourrait mener à être "blacklisté"</t>
+  </si>
+  <si>
+    <t>Supprimé les mots-clés cachés et les utilisait de manière intelligente en les mettant en valeur (en Gras, Italique ou souligné) plutôt que d'essayé de duper les robots Google</t>
+  </si>
+  <si>
+    <t>La langue définie est "Défaut" alors que le contenue de la page est entièrement rédigée en français</t>
+  </si>
+  <si>
+    <t>Attribuer la langue "FR" dans la balise &lt;HTML lang="*"&gt;, il est préférable de définir la langue pour pouvoir cibler le public visé</t>
+  </si>
+  <si>
+    <t>La meta kewords n'est plus utile vue qu'elle n'est plus analysée par les crawler (robot Google)</t>
+  </si>
+  <si>
+    <t>Il suffit de la supprimer</t>
+  </si>
+  <si>
+    <t>L'ensemble des fichiers à analysé sont volumineux et ont une repercution sur la vitesse de chargement de la page ou encore sur le credit crawling (limitation d'analyse par le robot Google)</t>
+  </si>
+  <si>
+    <t>utilisé des outils automatisés afin de minifier (réduire) la taille des fichiers à analyser et accélérer le chargement de la page</t>
+  </si>
+  <si>
+    <t>La structure HTML n'est pas optimisée avec des balises sémantiques telle que "Header, Main, Footer" ou encore "Section"</t>
+  </si>
+  <si>
+    <t>On peut les ajoutés aux contenus leur correspondant ce qui permettrait une meilleure indexation</t>
+  </si>
+  <si>
+    <t>Certains textes sont de trop petite taille pour certains utilisateurs ce qui rend pénible la lecture et donc peut les amener à quitter le site</t>
+  </si>
+  <si>
+    <t>Augmenté la taille en utilisant des pourcentages en unité pour les rendre adaptatifs aux tailles d'écrans utilisés</t>
+  </si>
+  <si>
+    <t>Le formulaire n'impose aucune restriction il n'est donc possible d'envoyer des formulaires vides et laisse une possibilité de spaming et un danger au niveau sécurité</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +278,19 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -326,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -345,6 +361,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,8 +678,8 @@
   </sheetPr>
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -718,19 +743,19 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -755,22 +780,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -795,22 +820,22 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -835,22 +860,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -872,25 +897,25 @@
     </row>
     <row r="6" spans="1:24" s="5" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -915,22 +940,22 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -955,22 +980,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -992,25 +1017,25 @@
     </row>
     <row r="9" spans="1:24" s="5" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1030,309 +1055,317 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" s="5" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:24" s="9" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-    </row>
-    <row r="11" spans="1:24" s="5" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-    </row>
-    <row r="12" spans="1:24" s="5" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="B10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+    </row>
+    <row r="11" spans="1:24" s="9" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="B11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+    </row>
+    <row r="12" spans="1:24" s="9" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+    </row>
+    <row r="13" spans="1:24" s="9" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+    </row>
+    <row r="14" spans="1:24" s="9" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+    </row>
+    <row r="15" spans="1:24" s="9" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+    </row>
+    <row r="16" spans="1:24" s="9" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+    </row>
+    <row r="17" spans="1:24" s="9" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-    </row>
-    <row r="13" spans="1:24" s="5" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-    </row>
-    <row r="14" spans="1:24" s="5" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-    </row>
-    <row r="15" spans="1:24" s="5" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-    </row>
-    <row r="16" spans="1:24" s="5" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="1:24" s="5" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
+      <c r="C17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Audit-SEO.xlsx
+++ b/Audit-SEO.xlsx
@@ -678,7 +678,7 @@
   </sheetPr>
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>

--- a/Audit-SEO.xlsx
+++ b/Audit-SEO.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redog\Desktop\Formation\OC P4\DW+P4+sources+site+La+Panthere\Starting website 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Feuil1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
   <si>
     <t>Catégorie</t>
   </si>
@@ -244,8 +249,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -257,7 +261,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFffffff"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -301,7 +305,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030a0"/>
+        <fgColor rgb="FF7030A0"/>
       </patternFill>
     </fill>
   </fills>
@@ -315,16 +319,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -339,38 +343,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -381,10 +391,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -422,71 +432,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -514,7 +524,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -537,11 +547,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -550,13 +560,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -566,7 +576,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -575,7 +585,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -584,7 +594,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -592,10 +602,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -666,397 +676,384 @@
   </sheetPr>
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="7" width="25.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="32.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="67.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="62.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="59.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="44.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="44.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="7" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="7" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="7" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="7" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="7" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="7" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="7" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="7" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="7" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="7" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="25.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="44.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="24" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="34.5" customFormat="1" s="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:24" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="78" customFormat="1" s="1">
-      <c r="A2" s="3" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+    </row>
+    <row r="2" spans="1:24" s="3" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="92.25" customFormat="1" s="1">
-      <c r="A3" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" spans="1:24" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="34.5" customFormat="1" s="1">
-      <c r="A4" s="3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="1:24" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="49.5" customFormat="1" s="1">
-      <c r="A5" s="3" t="s">
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:24" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="49.5" customFormat="1" s="1">
-      <c r="A6" s="3" t="s">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+    </row>
+    <row r="6" spans="1:24" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="49.5" customFormat="1" s="1">
-      <c r="A7" s="3" t="s">
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+    </row>
+    <row r="7" spans="1:24" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="34.5" customFormat="1" s="1">
-      <c r="A8" s="3" t="s">
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="49.5" customFormat="1" s="1">
-      <c r="A9" s="3" t="s">
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="63.75" customFormat="1" s="1">
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" s="3" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1076,7 +1073,7 @@
         <v>46</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -1096,7 +1093,7 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="63.75" customFormat="1" s="1">
+    <row r="11" spans="1:24" s="3" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -1136,7 +1133,7 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="34.5" customFormat="1" s="1">
+    <row r="12" spans="1:24" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
@@ -1176,7 +1173,7 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="34.5" customFormat="1" s="1">
+    <row r="13" spans="1:24" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
@@ -1216,7 +1213,7 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="98.40000000000002" customFormat="1" s="1">
+    <row r="14" spans="1:24" s="3" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
@@ -1235,7 +1232,9 @@
       <c r="F14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -1254,7 +1253,7 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="98.40000000000002" customFormat="1" s="1">
+    <row r="15" spans="1:24" s="3" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
@@ -1294,7 +1293,7 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="98.40000000000002" customFormat="1" s="1">
+    <row r="16" spans="1:24" s="3" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
@@ -1334,7 +1333,7 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="98.40000000000002" customFormat="1" s="1">
+    <row r="17" spans="1:24" s="3" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
@@ -1353,7 +1352,9 @@
       <c r="F17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>

--- a/Audit-SEO.xlsx
+++ b/Audit-SEO.xlsx
@@ -51,9 +51,6 @@
     <t>La "Meta titre" et "Meta description" est nécessaire à la bonne compréhension et pour l'indexation des moteurs de recherche</t>
   </si>
   <si>
-    <t>Chaque page doit avoir son propre titre exclusif et des mots-clés  dans la "Meta titre" qui comprend entre 10 et 70 caractères espacés compris, et de 160 caractères contenant des mots-clés et donnant un aperçu global à l'utilisateur dans la "meta description"</t>
-  </si>
-  <si>
     <t>OUI</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>https://developer.mozilla.org/fr/docs/Web/HTML/Attributes/required</t>
+  </si>
+  <si>
+    <t>Chaque page doit avoir son propre titre unique et des mots-clés  dans la "Meta titre" qui comprend entre 10 et 70 caractères espacés compris, et de 160 caractères contenant des mots-clés et donnant un aperçu global à l'utilisateur dans la "meta description"</t>
   </si>
 </sst>
 </file>
@@ -676,8 +676,8 @@
   </sheetPr>
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,16 +744,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -778,22 +778,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -818,22 +818,22 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -858,22 +858,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -895,25 +895,25 @@
     </row>
     <row r="6" spans="1:24" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -938,22 +938,22 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -978,22 +978,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1015,25 +1015,25 @@
     </row>
     <row r="9" spans="1:24" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1058,22 +1058,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="G10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -1098,22 +1098,22 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="G11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1138,22 +1138,22 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="G12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -1178,22 +1178,22 @@
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="G13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -1218,22 +1218,22 @@
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="G14" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1258,22 +1258,22 @@
         <v>7</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="G15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1295,25 +1295,25 @@
     </row>
     <row r="16" spans="1:24" s="3" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="G16" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1338,22 +1338,22 @@
         <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="G17" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
